--- a/similarities/split_global/harmonic_similarity_timestamps_325.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_325.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:01:36.900000', '0:01:42.460000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:36.760000', '0:01:43.240000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=96.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=96.76</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['D:7', 'G/5', 'G:min/5', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000')]</t>
+          <t>('0:01:23.505328', '0:01:33.397029')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+          <t>('0:00:03.080000', '0:00:11.700000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=83.505328</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=3.08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+          <t>('0:02:03.220000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:01:46.960000', '0:01:59.340000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:44.300045', '0:00:57.976598')]</t>
+          <t>('0:01:30.140000', '0:01:38.780000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=106.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=44.300045']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=90.14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:36.500000', '0:00:41.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:01:38.620000', '0:01:52.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.180000', '0:00:24.580000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:06.040000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=6.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=56.76']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['D', 'G/5', 'D', 'G/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+          <t>('0:00:20.432000', '0:00:24.332000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:31', '0:00:43.660000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=31.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:03:46.620000', '0:03:52.800000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:00:59.900000', '0:01:09.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=59.9</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:41.960000', '0:03:17.420000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:39')]</t>
+          <t>('0:00:17.900000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=161.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=17.9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:33.100000', '0:00:41.940000')]</t>
+          <t>('0:00:21.020000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=21.02</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:07.525011', '0:00:16.557573')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:43.380000', '0:01:57.340000'), ('0:01:53.920000', '0:02:08.800000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:41.760000', '0:00:45.160000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=113.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'D:maj/2', 'E']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:29.073753', '0:00:52.293707')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:07.990000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=29.073753']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:24.401147')]</t>
+          <t>('0:01:42.174263', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:52.020000', '0:01:04.440000')]</t>
+          <t>('0:02:01.080000', '0:02:02.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:17.890000', '0:00:21.530000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:53.250000', '0:00:54.920000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=17.89</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=53.25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
